--- a/docs/ST1/ST1_08.08.24_output.xlsx
+++ b/docs/ST1/ST1_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730734233.1865692</t>
+          <t>1731622385.587557</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730734235.357115</t>
+          <t>1731622387.8854022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734233.1865692.png</t>
+          <t>./test_images/SBERP1731622385.587557.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734235.357115.png</t>
+          <t>./test_images/SBERP1731622387.8854022.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730734235.3730726</t>
+          <t>1731622387.901367</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730734236.4413323</t>
+          <t>1731622389.0663092</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734235.3730726.png</t>
+          <t>./test_images/SBERP1731622387.901367.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734236.4413323.png</t>
+          <t>./test_images/SBERP1731622389.0663092.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -638,13 +650,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730734236.4562922</t>
+          <t>1731622389.0812426</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734236.4562922.png</t>
+          <t>./test_images/SBERP1731622389.0812426.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -661,8 +673,15 @@
       <c r="I5" t="n">
         <v>283.39</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>283.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -675,22 +694,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730734240.400783</t>
+          <t>1731622392.979749</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730734242.3869183</t>
+          <t>1731622394.9852417</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734240.400783.png</t>
+          <t>./test_images/SBER1731622392.979749.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734242.3869183.png</t>
+          <t>./test_images/SBER1731622394.9852417.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -711,6 +730,9 @@
       </c>
       <c r="K6" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
@@ -724,22 +746,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730734242.4019232</t>
+          <t>1731622395.0011992</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730734243.3591807</t>
+          <t>1731622396.0198185</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734242.4019232.png</t>
+          <t>./test_images/SBER1731622395.0011992.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734243.3591807.png</t>
+          <t>./test_images/SBER1731622396.0198185.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -760,6 +782,9 @@
       </c>
       <c r="K7" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -773,22 +798,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730734243.3751109</t>
+          <t>1731622396.0357423</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730734243.9534173</t>
+          <t>1731622396.6273756</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734243.3751109.png</t>
+          <t>./test_images/SBER1731622396.0357423.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734243.9534173.png</t>
+          <t>./test_images/SBER1731622396.6273756.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -809,6 +834,9 @@
       </c>
       <c r="K8" t="n">
         <v>0.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +850,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730734243.969354</t>
+          <t>1731622396.6433327</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730734244.4201689</t>
+          <t>1731622397.154447</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734243.969354.png</t>
+          <t>./test_images/SBER1731622396.6433327.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734244.4201689.png</t>
+          <t>./test_images/SBER1731622397.154447.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,6 +886,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.4700000000000273</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -871,22 +902,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730734244.4361129</t>
+          <t>1731622397.1694345</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730734246.4335606</t>
+          <t>1731622399.1822937</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734244.4361129.png</t>
+          <t>./test_images/SBER1731622397.1694345.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734246.4335606.png</t>
+          <t>./test_images/SBER1731622399.1822937.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -907,6 +938,9 @@
       </c>
       <c r="K10" t="n">
         <v>-0.8799999999999955</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="11">
@@ -920,22 +954,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730734246.4495184</t>
+          <t>1731622399.1982515</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730734248.1644382</t>
+          <t>1731622400.9914837</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734246.4495184.png</t>
+          <t>./test_images/SBER1731622399.1982515.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734248.1644382.png</t>
+          <t>./test_images/SBER1731622400.9914837.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="K11" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -969,22 +1006,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730734248.1803958</t>
+          <t>1731622401.00744</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730734249.4898624</t>
+          <t>1731622402.243486</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734248.1803958.png</t>
+          <t>./test_images/SBER1731622401.00744.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734249.4898624.png</t>
+          <t>./test_images/SBER1731622402.243486.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1005,6 +1042,9 @@
       </c>
       <c r="K12" t="n">
         <v>-0.4199999999999591</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="13">
@@ -1018,22 +1058,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730734249.505819</t>
+          <t>1731622402.2604399</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730734253.5198762</t>
+          <t>1731622406.0989592</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734249.505819.png</t>
+          <t>./test_images/SBER1731622402.2604399.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734253.5198762.png</t>
+          <t>./test_images/SBER1731622406.0989592.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,6 +1094,9 @@
       </c>
       <c r="K13" t="n">
         <v>-1.549999999999955</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1110,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730734253.536803</t>
+          <t>1731622406.1149166</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730734254.0144086</t>
+          <t>1731622406.5019014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734253.536803.png</t>
+          <t>./test_images/SBER1731622406.1149166.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734254.0144086.png</t>
+          <t>./test_images/SBER1731622406.5019014.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1103,6 +1146,9 @@
       </c>
       <c r="K14" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="15">
@@ -1116,22 +1162,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730734254.7543826</t>
+          <t>1731622407.204201</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730734256.5010366</t>
+          <t>1731622409.0518675</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734254.7543826.png</t>
+          <t>./test_images/SBER1731622407.204201.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734256.5010366.png</t>
+          <t>./test_images/SBER1731622409.0518675.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1152,6 +1198,9 @@
       </c>
       <c r="K15" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1165,13 +1214,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730734256.5179634</t>
+          <t>1731622409.0677977</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734256.5179634.png</t>
+          <t>./test_images/SBER1731622409.0677977.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1188,8 +1237,15 @@
       <c r="I16" t="n">
         <v>283.61</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>283.61</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1202,22 +1258,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730734259.370902</t>
+          <t>1731622411.953082</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730734260.7122512</t>
+          <t>1731622413.2966602</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734259.370902.png</t>
+          <t>./test_images/GAZP1731622411.953082.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734260.7122512.png</t>
+          <t>./test_images/GAZP1731622413.2966602.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1238,6 +1294,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
@@ -1251,22 +1310,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730734260.7292023</t>
+          <t>1731622413.3135886</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730734261.829841</t>
+          <t>1731622414.4366598</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734260.7292023.png</t>
+          <t>./test_images/GAZP1731622413.3135886.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734261.829841.png</t>
+          <t>./test_images/GAZP1731622414.4366598.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1287,6 +1346,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="19">
@@ -1300,22 +1362,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730734266.5559692</t>
+          <t>1731622419.4438195</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730734267.1832628</t>
+          <t>1731622420.1259842</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734266.5559692.png</t>
+          <t>./test_images/GAZP1731622419.4438195.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734267.1832628.png</t>
+          <t>./test_images/GAZP1731622420.1259842.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1336,6 +1398,9 @@
       </c>
       <c r="K19" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
@@ -1349,22 +1414,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730734268.551956</t>
+          <t>1731622421.573936</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730734269.0541203</t>
+          <t>1731622422.1023996</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734268.551956.png</t>
+          <t>./test_images/GAZP1731622421.573936.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734269.0541203.png</t>
+          <t>./test_images/GAZP1731622422.1023996.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1385,6 +1450,9 @@
       </c>
       <c r="K20" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="21">
@@ -1398,22 +1466,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730734270.829302</t>
+          <t>1731622423.9457402</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730734274.2224605</t>
+          <t>1731622427.3407784</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734270.829302.png</t>
+          <t>./test_images/GAZP1731622423.9457402.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734274.2224605.png</t>
+          <t>./test_images/GAZP1731622427.3407784.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1434,6 +1502,9 @@
       </c>
       <c r="K21" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="22">
@@ -1447,22 +1518,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730734277.809571</t>
+          <t>1731622430.9783318</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730734278.3696578</t>
+          <t>1731622431.48352</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734277.809571.png</t>
+          <t>./test_images/LKOH1731622430.9783318.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734278.3696578.png</t>
+          <t>./test_images/LKOH1731622431.48352.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1483,6 +1554,9 @@
       </c>
       <c r="K22" t="n">
         <v>7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
@@ -1496,22 +1570,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730734278.3866746</t>
+          <t>1731622431.5004754</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730734279.0923638</t>
+          <t>1731622432.1288815</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734278.3866746.png</t>
+          <t>./test_images/LKOH1731622431.5004754.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734279.0923638.png</t>
+          <t>./test_images/LKOH1731622432.1288815.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1532,6 +1606,9 @@
       </c>
       <c r="K23" t="n">
         <v>22</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="24">
@@ -1545,22 +1622,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730734281.2570758</t>
+          <t>1731622434.253551</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730734281.5608315</t>
+          <t>1731622434.3879242</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734281.2570758.png</t>
+          <t>./test_images/LKOH1731622434.253551.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734281.5608315.png</t>
+          <t>./test_images/LKOH1731622434.3879242.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1581,6 +1658,9 @@
       </c>
       <c r="K24" t="n">
         <v>15.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="25">
@@ -1594,22 +1674,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730734285.6937683</t>
+          <t>1731622438.3642256</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730734287.3061113</t>
+          <t>1731622439.831857</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734285.6937683.png</t>
+          <t>./test_images/LKOH1731622438.3642256.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734287.3061113.png</t>
+          <t>./test_images/LKOH1731622439.831857.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1630,6 +1710,9 @@
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="26">
@@ -1643,22 +1726,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730734287.3220422</t>
+          <t>1731622439.8478248</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730734289.8657475</t>
+          <t>1731622442.2438445</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734287.3220422.png</t>
+          <t>./test_images/LKOH1731622439.8478248.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734289.8657475.png</t>
+          <t>./test_images/LKOH1731622442.2438445.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1679,6 +1762,9 @@
       </c>
       <c r="K26" t="n">
         <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="27">
@@ -1692,13 +1778,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730734289.8816772</t>
+          <t>1731622442.2588146</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734289.8816772.png</t>
+          <t>./test_images/LKOH1731622442.2588146.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1715,8 +1801,15 @@
       <c r="I27" t="n">
         <v>6480</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6480</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1729,22 +1822,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730734290.1374984</t>
+          <t>1731622442.501431</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730734291.2683814</t>
+          <t>1731622443.568583</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734290.1374984.png</t>
+          <t>./test_images/ROSN1731622442.501431.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734291.2683814.png</t>
+          <t>./test_images/ROSN1731622443.568583.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1765,6 +1858,9 @@
       </c>
       <c r="K28" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="29">
@@ -1778,22 +1874,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730734291.2853367</t>
+          <t>1731622443.5845428</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730734293.0029085</t>
+          <t>1731622445.121855</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734291.2853367.png</t>
+          <t>./test_images/ROSN1731622443.5845428.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734293.0029085.png</t>
+          <t>./test_images/ROSN1731622445.121855.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1814,6 +1910,9 @@
       </c>
       <c r="K29" t="n">
         <v>-2.900000000000034</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1827,22 +1926,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730734293.0188386</t>
+          <t>1731622445.1377816</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730734293.81708</t>
+          <t>1731622445.92689</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734293.0188386.png</t>
+          <t>./test_images/ROSN1731622445.1377816.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734293.81708.png</t>
+          <t>./test_images/ROSN1731622445.92689.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1863,6 +1962,9 @@
       </c>
       <c r="K30" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
@@ -1876,22 +1978,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730734295.5744727</t>
+          <t>1731622447.667209</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730734296.8302343</t>
+          <t>1731622448.8685102</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734295.5744727.png</t>
+          <t>./test_images/ROSN1731622447.667209.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734296.8302343.png</t>
+          <t>./test_images/ROSN1731622448.8685102.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1912,6 +2014,9 @@
       </c>
       <c r="K31" t="n">
         <v>-1.100000000000023</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="32">
@@ -1925,22 +2030,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730734296.847189</t>
+          <t>1731622448.8844388</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730734298.128802</t>
+          <t>1731622450.1227233</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734296.847189.png</t>
+          <t>./test_images/ROSN1731622448.8844388.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734298.128802.png</t>
+          <t>./test_images/ROSN1731622450.1227233.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1961,6 +2066,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
@@ -1974,22 +2082,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730734298.1447587</t>
+          <t>1731622450.1386826</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730734299.6512725</t>
+          <t>1731622451.5052905</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734298.1447587.png</t>
+          <t>./test_images/ROSN1731622450.1386826.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734299.6512725.png</t>
+          <t>./test_images/ROSN1731622451.5052905.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2010,6 +2118,9 @@
       </c>
       <c r="K33" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="34">
@@ -2023,22 +2134,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730734299.6682544</t>
+          <t>1731622451.5212514</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730734300.3443432</t>
+          <t>1731622452.1868117</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734299.6682544.png</t>
+          <t>./test_images/ROSN1731622451.5212514.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734300.3443432.png</t>
+          <t>./test_images/ROSN1731622452.1868117.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2059,6 +2170,9 @@
       </c>
       <c r="K34" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -2072,22 +2186,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730734301.817124</t>
+          <t>1731622453.6183572</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730734303.659255</t>
+          <t>1731622455.3377984</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734301.817124.png</t>
+          <t>./test_images/ROSN1731622453.6183572.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734303.659255.png</t>
+          <t>./test_images/ROSN1731622455.3377984.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2108,6 +2222,9 @@
       </c>
       <c r="K35" t="n">
         <v>1.149999999999977</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
@@ -2121,13 +2238,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730734303.9978971</t>
+          <t>1731622455.664014</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734303.9978971.png</t>
+          <t>./test_images/ROSN1731622455.664014.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2144,8 +2261,15 @@
       <c r="I36" t="n">
         <v>511.2</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>511.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2158,22 +2282,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730734305.8000696</t>
+          <t>1731622457.3790534</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730734307.2941954</t>
+          <t>1731622458.9192224</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734305.8000696.png</t>
+          <t>./test_images/MOEX1731622457.3790534.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734307.2941954.png</t>
+          <t>./test_images/MOEX1731622458.9192224.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2194,6 +2318,9 @@
       </c>
       <c r="K37" t="n">
         <v>1.009999999999991</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="38">
@@ -2207,22 +2334,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730734308.2401125</t>
+          <t>1731622459.9393487</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730734308.9434314</t>
+          <t>1731622460.5893238</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734308.2401125.png</t>
+          <t>./test_images/MOEX1731622459.9393487.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734308.9434314.png</t>
+          <t>./test_images/MOEX1731622460.5893238.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2243,6 +2370,9 @@
       </c>
       <c r="K38" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="39">
@@ -2256,22 +2386,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730734311.298181</t>
+          <t>1731622463.2741325</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730734312.1746511</t>
+          <t>1731622464.2057984</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734311.298181.png</t>
+          <t>./test_images/MOEX1731622463.2741325.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734312.1746511.png</t>
+          <t>./test_images/MOEX1731622464.2057984.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2292,6 +2422,9 @@
       </c>
       <c r="K39" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40">
@@ -2305,22 +2438,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730734312.1906114</t>
+          <t>1731622464.221766</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730734312.3282135</t>
+          <t>1731622464.3840978</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734312.1906114.png</t>
+          <t>./test_images/MOEX1731622464.221766.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734312.3282135.png</t>
+          <t>./test_images/MOEX1731622464.3840978.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2341,6 +2474,9 @@
       </c>
       <c r="K40" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
@@ -2354,22 +2490,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730734313.4781766</t>
+          <t>1731622465.5123131</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730734316.1586585</t>
+          <t>1731622468.2208495</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734313.4781766.png</t>
+          <t>./test_images/MOEX1731622465.5123131.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734316.1586585.png</t>
+          <t>./test_images/MOEX1731622468.2208495.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2390,6 +2526,9 @@
       </c>
       <c r="K41" t="n">
         <v>-0.6299999999999955</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="42">
@@ -2403,22 +2542,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730734316.1756134</t>
+          <t>1731622468.2368066</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730734319.7552204</t>
+          <t>1731622471.6994877</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734316.1756134.png</t>
+          <t>./test_images/MOEX1731622468.2368066.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734319.7552204.png</t>
+          <t>./test_images/MOEX1731622471.6994877.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2439,6 +2578,9 @@
       </c>
       <c r="K42" t="n">
         <v>-0.5300000000000011</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="43">
@@ -2452,13 +2594,13 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730734319.7721753</t>
+          <t>1731622471.7154486</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734319.7721753.png</t>
+          <t>./test_images/MOEX1731622471.7154486.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2475,8 +2617,15 @@
       <c r="I43" t="n">
         <v>228.9</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2489,22 +2638,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730734321.0847712</t>
+          <t>1731622473.0076933</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730734321.553518</t>
+          <t>1731622473.5549366</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734321.0847712.png</t>
+          <t>./test_images/NVTK1731622473.0076933.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734321.553518.png</t>
+          <t>./test_images/NVTK1731622473.5549366.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2525,6 +2674,9 @@
       </c>
       <c r="K44" t="n">
         <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
@@ -2538,22 +2690,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730734321.5704732</t>
+          <t>1731622473.5718913</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730734324.6988435</t>
+          <t>1731622476.8892684</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734321.5704732.png</t>
+          <t>./test_images/NVTK1731622473.5718913.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734324.6988435.png</t>
+          <t>./test_images/NVTK1731622476.8892684.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2574,6 +2726,9 @@
       </c>
       <c r="K45" t="n">
         <v>-7.399999999999977</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="46">
@@ -2587,22 +2742,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730734328.8889563</t>
+          <t>1731622481.052355</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730734331.2421558</t>
+          <t>1731622483.660591</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734328.8889563.png</t>
+          <t>./test_images/NVTK1731622481.052355.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734331.2421558.png</t>
+          <t>./test_images/NVTK1731622483.660591.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2623,6 +2778,9 @@
       </c>
       <c r="K46" t="n">
         <v>-4.799999999999955</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="47">
@@ -2636,22 +2794,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730734331.2590826</t>
+          <t>1731622483.6775606</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730734333.4539042</t>
+          <t>1731622485.9642458</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734331.2590826.png</t>
+          <t>./test_images/NVTK1731622483.6775606.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734333.4539042.png</t>
+          <t>./test_images/NVTK1731622485.9642458.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2672,6 +2830,9 @@
       </c>
       <c r="K47" t="n">
         <v>-1.399999999999977</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="48">
@@ -2685,22 +2846,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730734336.6188297</t>
+          <t>1731622489.15282</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730734340.0610669</t>
+          <t>1731622492.3560457</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734336.6188297.png</t>
+          <t>./test_images/CNY1731622489.15282.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734340.0610669.png</t>
+          <t>./test_images/CNY1731622492.3560457.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2721,6 +2882,9 @@
       </c>
       <c r="K48" t="n">
         <v>-0.04299999999999926</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="49">
@@ -2734,22 +2898,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730734341.8015108</t>
+          <t>1731622494.2408266</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730734348.2737584</t>
+          <t>1731622500.822178</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734341.8015108.png</t>
+          <t>./test_images/CNY1731622494.2408266.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734348.2737584.png</t>
+          <t>./test_images/CNY1731622500.822178.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2770,6 +2934,9 @@
       </c>
       <c r="K49" t="n">
         <v>-0.01399999999999935</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="50">
@@ -2783,22 +2950,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730734348.2986915</t>
+          <t>1731622500.8391285</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730734349.3590195</t>
+          <t>1731622501.8431938</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734348.2986915.png</t>
+          <t>./test_images/CNY1731622500.8391285.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734349.3590195.png</t>
+          <t>./test_images/CNY1731622501.8431938.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2819,6 +2986,9 @@
       </c>
       <c r="K50" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
@@ -2832,22 +3002,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730734349.3769722</t>
+          <t>1731622501.8601484</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730734349.9775436</t>
+          <t>1731622502.4578648</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734349.3769722.png</t>
+          <t>./test_images/CNY1731622501.8601484.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734349.9775436.png</t>
+          <t>./test_images/CNY1731622502.4578648.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2868,6 +3038,9 @@
       </c>
       <c r="K51" t="n">
         <v>0.005000000000000782</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="52">
@@ -2881,22 +3054,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730734349.9954965</t>
+          <t>1731622502.4748192</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730734351.1716027</t>
+          <t>1731622503.7250736</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734349.9954965.png</t>
+          <t>./test_images/CNY1731622502.4748192.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734351.1716027.png</t>
+          <t>./test_images/CNY1731622503.7250736.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2917,6 +3090,9 @@
       </c>
       <c r="K52" t="n">
         <v>-0.008999999999998565</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="53">
@@ -2930,13 +3106,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730734351.1890903</t>
+          <t>1731622503.7419984</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734351.1890903.png</t>
+          <t>./test_images/CNY1731622503.7419984.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2953,8 +3129,15 @@
       <c r="I53" t="n">
         <v>11.963</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.963</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2967,22 +3150,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730734351.88544</t>
+          <t>1731622504.4089184</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730734352.4464633</t>
+          <t>1731622505.1076722</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734351.88544.png</t>
+          <t>./test_images/GMKN1731622504.4089184.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734352.4464633.png</t>
+          <t>./test_images/GMKN1731622505.1076722.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3003,6 +3186,9 @@
       </c>
       <c r="K54" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55">
@@ -3016,22 +3202,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730734352.4634175</t>
+          <t>1731622505.1236298</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730734354.04048</t>
+          <t>1731622506.8218803</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734352.4634175.png</t>
+          <t>./test_images/GMKN1731622505.1236298.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734354.04048.png</t>
+          <t>./test_images/GMKN1731622506.8218803.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3052,6 +3238,9 @@
       </c>
       <c r="K55" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="56">
@@ -3065,22 +3254,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730734354.0584059</t>
+          <t>1731622506.8378372</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730734354.9630325</t>
+          <t>1731622507.7488954</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734354.0584059.png</t>
+          <t>./test_images/GMKN1731622506.8378372.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734354.9630325.png</t>
+          <t>./test_images/GMKN1731622507.7488954.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3101,6 +3290,9 @@
       </c>
       <c r="K56" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="57">
@@ -3114,22 +3306,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730734354.9796016</t>
+          <t>1731622507.7648525</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730734357.2745004</t>
+          <t>1731622510.0807269</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734354.9796016.png</t>
+          <t>./test_images/GMKN1731622507.7648525.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734357.2745004.png</t>
+          <t>./test_images/GMKN1731622510.0807269.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3150,6 +3342,9 @@
       </c>
       <c r="K57" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="58">
@@ -3163,22 +3358,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730734357.2914555</t>
+          <t>1731622510.096684</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730734358.4898307</t>
+          <t>1731622511.1824872</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734357.2914555.png</t>
+          <t>./test_images/GMKN1731622510.096684.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734358.4898307.png</t>
+          <t>./test_images/GMKN1731622511.1824872.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3199,6 +3394,9 @@
       </c>
       <c r="K58" t="n">
         <v>-0.3200000000000074</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="59">
@@ -3212,22 +3410,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730734358.5071774</t>
+          <t>1731622511.1994426</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730734361.7638822</t>
+          <t>1731622514.3109324</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734358.5071774.png</t>
+          <t>./test_images/GMKN1731622511.1994426.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734361.7638822.png</t>
+          <t>./test_images/GMKN1731622514.3109324.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3248,6 +3446,9 @@
       </c>
       <c r="K59" t="n">
         <v>1.039999999999992</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="60">
@@ -3261,22 +3462,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730734363.1369896</t>
+          <t>1731622515.5458565</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730734366.006941</t>
+          <t>1731622518.067776</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734363.1369896.png</t>
+          <t>./test_images/GMKN1731622515.5458565.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734366.006941.png</t>
+          <t>./test_images/GMKN1731622518.067776.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3297,6 +3498,9 @@
       </c>
       <c r="K60" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="61">
@@ -3310,22 +3514,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730734367.408536</t>
+          <t>1731622519.2828236</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730734368.777407</t>
+          <t>1731622520.8140469</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734367.408536.png</t>
+          <t>./test_images/NLMK1731622519.2828236.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734368.777407.png</t>
+          <t>./test_images/NLMK1731622520.8140469.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3346,6 +3550,9 @@
       </c>
       <c r="K61" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="62">
@@ -3359,22 +3566,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730734369.6640506</t>
+          <t>1731622521.8976011</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730734371.2874627</t>
+          <t>1731622523.8222127</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734369.6640506.png</t>
+          <t>./test_images/NLMK1731622521.8976011.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734371.2874627.png</t>
+          <t>./test_images/NLMK1731622523.8222127.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3395,6 +3602,9 @@
       </c>
       <c r="K62" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -3408,22 +3618,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730734371.304391</t>
+          <t>1731622523.8391678</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730734373.4059646</t>
+          <t>1731622526.1030962</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734371.304391.png</t>
+          <t>./test_images/NLMK1731622523.8391678.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734373.4059646.png</t>
+          <t>./test_images/NLMK1731622526.1030962.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3444,6 +3654,9 @@
       </c>
       <c r="K63" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="64">
@@ -3457,22 +3670,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730734373.4229198</t>
+          <t>1731622526.119054</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730734374.6222131</t>
+          <t>1731622527.3095744</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734373.4229198.png</t>
+          <t>./test_images/NLMK1731622526.119054.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734374.6222131.png</t>
+          <t>./test_images/NLMK1731622527.3095744.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3493,6 +3706,9 @@
       </c>
       <c r="K64" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="65">
@@ -3506,22 +3722,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730734374.640165</t>
+          <t>1731622527.3265305</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730734375.763795</t>
+          <t>1731622528.6731825</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734374.640165.png</t>
+          <t>./test_images/NLMK1731622527.3265305.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734375.763795.png</t>
+          <t>./test_images/NLMK1731622528.6731825.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3542,6 +3758,9 @@
       </c>
       <c r="K65" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="66">
@@ -3555,22 +3774,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730734377.2080004</t>
+          <t>1731622530.0209906</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730734380.060343</t>
+          <t>1731622532.971857</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734377.2080004.png</t>
+          <t>./test_images/NLMK1731622530.0209906.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734380.060343.png</t>
+          <t>./test_images/NLMK1731622532.971857.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3591,6 +3810,9 @@
       </c>
       <c r="K66" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="67">
@@ -3604,22 +3826,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730734380.0783224</t>
+          <t>1731622532.9888053</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730734380.8891258</t>
+          <t>1731622533.8936791</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734380.0783224.png</t>
+          <t>./test_images/NLMK1731622532.9888053.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734380.8891258.png</t>
+          <t>./test_images/NLMK1731622533.8936791.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3640,6 +3862,9 @@
       </c>
       <c r="K67" t="n">
         <v>0.7800000000000011</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="68">
@@ -3653,22 +3878,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730734384.0634716</t>
+          <t>1731622537.0705078</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730734385.0802975</t>
+          <t>1731622538.040253</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734384.0634716.png</t>
+          <t>./test_images/MAGN1731622537.0705078.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734385.0802975.png</t>
+          <t>./test_images/MAGN1731622538.040253.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3689,6 +3914,9 @@
       </c>
       <c r="K68" t="n">
         <v>-0.2149999999999963</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="69">
@@ -3702,22 +3930,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730734385.0982502</t>
+          <t>1731622538.057206</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730734386.6818805</t>
+          <t>1731622539.5681932</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734385.0982502.png</t>
+          <t>./test_images/MAGN1731622538.057206.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734386.6818805.png</t>
+          <t>./test_images/MAGN1731622539.5681932.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3738,6 +3966,9 @@
       </c>
       <c r="K69" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
@@ -3751,22 +3982,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730734389.1651108</t>
+          <t>1731622542.0605085</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730734389.3089914</t>
+          <t>1731622542.1993709</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734389.1651108.png</t>
+          <t>./test_images/MAGN1731622542.0605085.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734389.3089914.png</t>
+          <t>./test_images/MAGN1731622542.1993709.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3787,6 +4018,9 @@
       </c>
       <c r="K70" t="n">
         <v>0.134999999999998</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="71">
@@ -3800,22 +4034,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730734389.7019827</t>
+          <t>1731622542.588421</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730734391.4166002</t>
+          <t>1731622544.4527287</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734389.7019827.png</t>
+          <t>./test_images/MAGN1731622542.588421.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734391.4166002.png</t>
+          <t>./test_images/MAGN1731622544.4527287.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3836,6 +4070,9 @@
       </c>
       <c r="K71" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="72">
@@ -3849,22 +4086,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730734392.2922864</t>
+          <t>1731622545.3558502</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730734394.1558602</t>
+          <t>1731622547.362494</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734392.2922864.png</t>
+          <t>./test_images/MAGN1731622545.3558502.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734394.1558602.png</t>
+          <t>./test_images/MAGN1731622547.362494.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3884,6 +4121,9 @@
         <v>49.2</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3898,22 +4138,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730734394.173783</t>
+          <t>1731622547.3794422</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730734394.3533332</t>
+          <t>1731622547.5585852</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734394.173783.png</t>
+          <t>./test_images/MAGN1731622547.3794422.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734394.3533332.png</t>
+          <t>./test_images/MAGN1731622547.5585852.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3934,6 +4174,9 @@
       </c>
       <c r="K73" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="74">
@@ -3947,22 +4190,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730734394.371254</t>
+          <t>1731622547.5765393</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1730734395.3021173</t>
+          <t>1731622548.5978932</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734394.371254.png</t>
+          <t>./test_images/MAGN1731622547.5765393.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734395.3021173.png</t>
+          <t>./test_images/MAGN1731622548.5978932.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3983,6 +4226,9 @@
       </c>
       <c r="K74" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="75">
@@ -3996,13 +4242,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730734395.320069</t>
+          <t>1731622548.6148481</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734395.320069.png</t>
+          <t>./test_images/MAGN1731622548.6148481.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4019,8 +4265,15 @@
       <c r="I75" t="n">
         <v>49.31</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4033,22 +4286,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730734400.2441719</t>
+          <t>1731622553.8617756</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730734400.9956925</t>
+          <t>1731622554.6446667</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734400.2441719.png</t>
+          <t>./test_images/CHMF1731622553.8617756.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734400.9956925.png</t>
+          <t>./test_images/CHMF1731622554.6446667.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4069,6 +4322,9 @@
       </c>
       <c r="K76" t="n">
         <v>8</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4082,22 +4338,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730734404.713267</t>
+          <t>1731622558.2220986</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730734405.8462958</t>
+          <t>1731622559.3319921</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734404.713267.png</t>
+          <t>./test_images/CHMF1731622558.2220986.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734405.8462958.png</t>
+          <t>./test_images/CHMF1731622559.3319921.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4118,6 +4374,9 @@
       </c>
       <c r="K77" t="n">
         <v>5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="78">
@@ -4131,22 +4390,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730734406.7515943</t>
+          <t>1731622560.2382934</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1730734407.5030468</t>
+          <t>1731622560.8921614</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734406.7515943.png</t>
+          <t>./test_images/CHMF1731622560.2382934.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734407.5030468.png</t>
+          <t>./test_images/CHMF1731622560.8921614.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4167,6 +4426,9 @@
       </c>
       <c r="K78" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="79">
@@ -4180,13 +4442,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730734408.3268533</t>
+          <t>1731622561.69673</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734408.3268533.png</t>
+          <t>./test_images/CHMF1731622561.69673.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4203,8 +4465,15 @@
       <c r="I79" t="n">
         <v>1386.4</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1386.4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4217,22 +4486,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730734412.682884</t>
+          <t>1731622566.1955514</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730734414.1383038</t>
+          <t>1731622567.6957538</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734412.682884.png</t>
+          <t>./test_images/ALRS1731622566.1955514.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734414.1383038.png</t>
+          <t>./test_images/ALRS1731622567.6957538.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4253,6 +4522,9 @@
       </c>
       <c r="K80" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4266,22 +4538,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730734415.8107758</t>
+          <t>1731622569.47129</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1730734416.2519076</t>
+          <t>1731622569.9605966</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734415.8107758.png</t>
+          <t>./test_images/ALRS1731622569.47129.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734416.2519076.png</t>
+          <t>./test_images/ALRS1731622569.9605966.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4302,6 +4574,9 @@
       </c>
       <c r="K81" t="n">
         <v>0.3000000000000043</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="82">
@@ -4315,22 +4590,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730734417.0314007</t>
+          <t>1731622570.792564</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730734417.5774503</t>
+          <t>1731622571.3481474</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734417.0314007.png</t>
+          <t>./test_images/ALRS1731622570.792564.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734417.5774503.png</t>
+          <t>./test_images/ALRS1731622571.3481474.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4351,6 +4626,9 @@
       </c>
       <c r="K82" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="83">
@@ -4364,22 +4642,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730734417.5954027</t>
+          <t>1731622571.365102</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730734419.1413379</t>
+          <t>1731622573.0437772</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734417.5954027.png</t>
+          <t>./test_images/ALRS1731622571.365102.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734419.1413379.png</t>
+          <t>./test_images/ALRS1731622573.0437772.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4400,6 +4678,9 @@
       </c>
       <c r="K83" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="84">
@@ -4413,22 +4694,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730734419.1592896</t>
+          <t>1731622573.060732</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730734420.4502504</t>
+          <t>1731622574.4235115</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734419.1592896.png</t>
+          <t>./test_images/ALRS1731622573.060732.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734420.4502504.png</t>
+          <t>./test_images/ALRS1731622574.4235115.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4449,6 +4730,9 @@
       </c>
       <c r="K84" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="85">
@@ -4462,13 +4746,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730734423.9436</t>
+          <t>1731622577.9477015</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734423.9436.png</t>
+          <t>./test_images/ALRS1731622577.9477015.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4485,8 +4769,15 @@
       <c r="I85" t="n">
         <v>60.82</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4499,22 +4790,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730734427.6899366</t>
+          <t>1731622581.8083968</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1730734430.5415678</t>
+          <t>1731622584.815872</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734427.6899366.png</t>
+          <t>./test_images/VTBR1731622581.8083968.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734430.5415678.png</t>
+          <t>./test_images/VTBR1731622584.815872.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4535,6 +4826,9 @@
       </c>
       <c r="K86" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="87">
@@ -4548,22 +4842,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730734430.558525</t>
+          <t>1731622584.833824</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730734431.412008</t>
+          <t>1731622585.7218971</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734430.558525.png</t>
+          <t>./test_images/VTBR1731622584.833824.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734431.412008.png</t>
+          <t>./test_images/VTBR1731622585.7218971.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4584,6 +4878,9 @@
       </c>
       <c r="K87" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="88">
@@ -4597,22 +4894,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730734431.4299874</t>
+          <t>1731622585.7398493</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1730734432.7854507</t>
+          <t>1731622587.207379</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734431.4299874.png</t>
+          <t>./test_images/VTBR1731622585.7398493.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734432.7854507.png</t>
+          <t>./test_images/VTBR1731622587.207379.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4633,6 +4930,9 @@
       </c>
       <c r="K88" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="89">
@@ -4646,22 +4946,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1730734432.8034084</t>
+          <t>1731622587.225332</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1730734433.5794396</t>
+          <t>1731622588.0608587</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734432.8034084.png</t>
+          <t>./test_images/VTBR1731622587.225332.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734433.5794396.png</t>
+          <t>./test_images/VTBR1731622588.0608587.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4682,6 +4982,9 @@
       </c>
       <c r="K89" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="90">
@@ -4695,22 +4998,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1730734433.5973856</t>
+          <t>1731622588.0788074</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1730734437.3459227</t>
+          <t>1731622591.962728</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734433.5973856.png</t>
+          <t>./test_images/VTBR1731622588.0788074.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734437.3459227.png</t>
+          <t>./test_images/VTBR1731622591.962728.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4731,6 +5034,9 @@
       </c>
       <c r="K90" t="n">
         <v>-0.5100000000000051</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="91">
@@ -4744,22 +5050,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1730734437.3638747</t>
+          <t>1731622591.9806802</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1730734438.001742</t>
+          <t>1731622592.5153894</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734437.3638747.png</t>
+          <t>./test_images/VTBR1731622591.9806802.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734438.001742.png</t>
+          <t>./test_images/VTBR1731622592.5153894.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4780,6 +5086,9 @@
       </c>
       <c r="K91" t="n">
         <v>0.25</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="92">
@@ -4793,22 +5102,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1730734441.6642108</t>
+          <t>1731622596.349606</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1730734443.041341</t>
+          <t>1731622597.7654278</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734441.6642108.png</t>
+          <t>./test_images/VTBR1731622596.349606.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734443.041341.png</t>
+          <t>./test_images/VTBR1731622597.7654278.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4829,6 +5138,9 @@
       </c>
       <c r="K92" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="93">
@@ -4842,13 +5154,13 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1730734443.063253</t>
+          <t>1731622597.7833817</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734443.063253.png</t>
+          <t>./test_images/VTBR1731622597.7833817.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4865,8 +5177,15 @@
       <c r="I93" t="n">
         <v>97.81999999999999</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4879,22 +5198,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1730734443.495129</t>
+          <t>1731622598.242377</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1730734444.6744938</t>
+          <t>1731622599.3514638</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734443.495129.png</t>
+          <t>./test_images/SELG1731622598.242377.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734444.6744938.png</t>
+          <t>./test_images/SELG1731622599.3514638.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4915,6 +5234,9 @@
       </c>
       <c r="K94" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="95">
@@ -4928,22 +5250,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1730734444.6914222</t>
+          <t>1731622599.3674173</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1730734446.4696996</t>
+          <t>1731622600.946568</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734444.6914222.png</t>
+          <t>./test_images/SELG1731622599.3674173.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734446.4696996.png</t>
+          <t>./test_images/SELG1731622600.946568.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4964,6 +5286,9 @@
       </c>
       <c r="K95" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="96">
@@ -4977,22 +5302,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1730734446.4866261</t>
+          <t>1731622600.9625547</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1730734447.7377646</t>
+          <t>1731622602.1254597</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734446.4866261.png</t>
+          <t>./test_images/SELG1731622600.9625547.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734447.7377646.png</t>
+          <t>./test_images/SELG1731622602.1254597.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5013,6 +5338,9 @@
       </c>
       <c r="K96" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="97">
@@ -5026,22 +5354,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1730734447.7556884</t>
+          <t>1731622602.1414168</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1730734448.8512363</t>
+          <t>1731622603.1894083</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734447.7556884.png</t>
+          <t>./test_images/SELG1731622602.1414168.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734448.8512363.png</t>
+          <t>./test_images/SELG1731622603.1894083.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5062,6 +5390,9 @@
       </c>
       <c r="K97" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="98">
@@ -5075,22 +5406,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1730734448.8681903</t>
+          <t>1731622603.2053638</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1730734450.4197447</t>
+          <t>1731622604.6978352</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734448.8681903.png</t>
+          <t>./test_images/SELG1731622603.2053638.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734450.4197447.png</t>
+          <t>./test_images/SELG1731622604.6978352.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5111,6 +5442,9 @@
       </c>
       <c r="K98" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="99">
@@ -5124,22 +5458,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1730734450.437205</t>
+          <t>1731622604.71479</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1730734451.1742346</t>
+          <t>1731622605.5143034</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734450.437205.png</t>
+          <t>./test_images/SELG1731622604.71479.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734451.1742346.png</t>
+          <t>./test_images/SELG1731622605.5143034.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5160,6 +5494,9 @@
       </c>
       <c r="K99" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="100">
@@ -5173,22 +5510,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1730734451.9464204</t>
+          <t>1731622606.2452986</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1730734454.6744626</t>
+          <t>1731622608.8420637</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734451.9464204.png</t>
+          <t>./test_images/SELG1731622606.2452986.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734454.6744626.png</t>
+          <t>./test_images/SELG1731622608.8420637.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5209,6 +5546,9 @@
       </c>
       <c r="K100" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="101">
@@ -5222,13 +5562,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1730734454.691417</t>
+          <t>1731622608.859019</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734454.691417.png</t>
+          <t>./test_images/SELG1731622608.859019.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -5245,8 +5585,15 @@
       <c r="I101" t="n">
         <v>55.85</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>55.85</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5259,22 +5606,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730734461.911961</t>
+          <t>1731622615.926766</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1730734463.318905</t>
+          <t>1731622617.4585063</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730734461.911961.png</t>
+          <t>./test_images/SOFL1731622615.926766.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730734463.318905.png</t>
+          <t>./test_images/SOFL1731622617.4585063.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5295,6 +5642,9 @@
       </c>
       <c r="K102" t="n">
         <v>1.02000000000001</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="103">
@@ -5308,22 +5658,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1730734470.4494994</t>
+          <t>1731622624.82017</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1730734471.8381925</t>
+          <t>1731622626.2316113</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730734470.4494994.png</t>
+          <t>./test_images/SOFL1731622624.82017.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730734471.8381925.png</t>
+          <t>./test_images/SOFL1731622626.2316113.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5344,6 +5694,9 @@
       </c>
       <c r="K103" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="104">
@@ -5357,13 +5710,13 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1730734471.858685</t>
+          <t>1731622626.248563</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730734471.858685.png</t>
+          <t>./test_images/SOFL1731622626.248563.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -5380,8 +5733,15 @@
       <c r="I104" t="n">
         <v>153.32</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>153.32</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5394,22 +5754,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1730734472.053409</t>
+          <t>1731622626.4452653</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1730734475.4057367</t>
+          <t>1731622629.518783</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734472.053409.png</t>
+          <t>./test_images/AFKS1731622626.4452653.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734475.4057367.png</t>
+          <t>./test_images/AFKS1731622629.518783.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5430,6 +5790,9 @@
       </c>
       <c r="K105" t="n">
         <v>0.01000000000000156</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="106">
@@ -5443,22 +5806,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1730734475.4237168</t>
+          <t>1731622629.5367072</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1730734477.4959972</t>
+          <t>1731622631.5799086</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734475.4237168.png</t>
+          <t>./test_images/AFKS1731622629.5367072.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734477.4959972.png</t>
+          <t>./test_images/AFKS1731622631.5799086.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5479,6 +5842,9 @@
       </c>
       <c r="K106" t="n">
         <v>-0.1110000000000007</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="107">
@@ -5492,22 +5858,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1730734477.5139492</t>
+          <t>1731622631.5968637</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1730734479.5186818</t>
+          <t>1731622633.3435745</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734477.5139492.png</t>
+          <t>./test_images/AFKS1731622631.5968637.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734479.5186818.png</t>
+          <t>./test_images/AFKS1731622633.3435745.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5528,6 +5894,9 @@
       </c>
       <c r="K107" t="n">
         <v>-0.1320000000000014</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="108">
@@ -5541,22 +5910,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1730734479.5376313</t>
+          <t>1731622633.3615234</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1730734480.1318605</t>
+          <t>1731622633.9464161</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734479.5376313.png</t>
+          <t>./test_images/AFKS1731622633.3615234.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734480.1318605.png</t>
+          <t>./test_images/AFKS1731622633.9464161.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5577,6 +5946,9 @@
       </c>
       <c r="K108" t="n">
         <v>0.01899999999999835</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="109">
@@ -5590,22 +5962,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1730734480.151806</t>
+          <t>1731622633.9643693</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1730734483.2822006</t>
+          <t>1731622637.1270874</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734480.151806.png</t>
+          <t>./test_images/AFKS1731622633.9643693.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734483.2822006.png</t>
+          <t>./test_images/AFKS1731622637.1270874.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5626,6 +5998,9 @@
       </c>
       <c r="K109" t="n">
         <v>-0.1210000000000022</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="110">
@@ -5639,22 +6014,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1730734483.2991552</t>
+          <t>1731622637.1440444</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1730734486.3278058</t>
+          <t>1731622640.268077</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734483.2991552.png</t>
+          <t>./test_images/AFKS1731622637.1440444.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734486.3278058.png</t>
+          <t>./test_images/AFKS1731622640.268077.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5675,6 +6050,9 @@
       </c>
       <c r="K110" t="n">
         <v>-0.06900000000000261</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="111">
@@ -5688,13 +6066,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1730734486.3457854</t>
+          <t>1731622640.2860274</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730734486.3457854.png</t>
+          <t>./test_images/AFKS1731622640.2860274.png</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -5711,8 +6089,15 @@
       <c r="I111" t="n">
         <v>20.35</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5725,22 +6110,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1730734487.6371334</t>
+          <t>1731622641.5596647</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1730734489.4429054</t>
+          <t>1731622643.2951717</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734487.6371334.png</t>
+          <t>./test_images/SIBN1731622641.5596647.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734489.4429054.png</t>
+          <t>./test_images/SIBN1731622643.2951717.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5761,6 +6146,9 @@
       </c>
       <c r="K112" t="n">
         <v>2.149999999999977</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="113">
@@ -5774,22 +6162,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1730734490.0437503</t>
+          <t>1731622643.8162043</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1730734492.3068974</t>
+          <t>1731622646.01965</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734490.0437503.png</t>
+          <t>./test_images/SIBN1731622643.8162043.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734492.3068974.png</t>
+          <t>./test_images/SIBN1731622646.01965.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5810,6 +6198,9 @@
       </c>
       <c r="K113" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="114">
@@ -5823,22 +6214,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1730734493.3086977</t>
+          <t>1731622647.018375</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1730734493.8394125</t>
+          <t>1731622647.6668344</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734493.3086977.png</t>
+          <t>./test_images/SIBN1731622647.018375.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734493.8394125.png</t>
+          <t>./test_images/SIBN1731622647.6668344.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5859,6 +6250,9 @@
       </c>
       <c r="K114" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="115">
@@ -5872,22 +6266,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1730734493.8573365</t>
+          <t>1731622647.6837885</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1730734496.444784</t>
+          <t>1731622650.4921787</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734493.8573365.png</t>
+          <t>./test_images/SIBN1731622647.6837885.png</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734496.444784.png</t>
+          <t>./test_images/SIBN1731622650.4921787.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5908,6 +6302,9 @@
       </c>
       <c r="K115" t="n">
         <v>4.049999999999955</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="116">
@@ -5921,13 +6318,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1730734497.4493873</t>
+          <t>1731622651.5050828</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730734497.4493873.png</t>
+          <t>./test_images/SIBN1731622651.5050828.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -5944,8 +6341,15 @@
       <c r="I116" t="n">
         <v>676.7</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5958,22 +6362,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1730734502.4937992</t>
+          <t>1731622656.4681294</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1730734504.0078468</t>
+          <t>1731622658.0461586</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734502.4937992.png</t>
+          <t>./test_images/MTLR1731622656.4681294.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734504.0078468.png</t>
+          <t>./test_images/MTLR1731622658.0461586.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5994,6 +6398,9 @@
       </c>
       <c r="K117" t="n">
         <v>-0.2299999999999898</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="118">
@@ -6007,22 +6414,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1730734504.0287912</t>
+          <t>1731622658.0641365</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1730734505.0019276</t>
+          <t>1731622659.0496144</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734504.0287912.png</t>
+          <t>./test_images/MTLR1731622658.0641365.png</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734505.0019276.png</t>
+          <t>./test_images/MTLR1731622659.0496144.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6043,6 +6450,9 @@
       </c>
       <c r="K118" t="n">
         <v>-0.5900000000000034</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="119">
@@ -6056,22 +6466,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1730734505.0208771</t>
+          <t>1731622659.0685613</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1730734507.1299083</t>
+          <t>1731622661.27106</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734505.0208771.png</t>
+          <t>./test_images/MTLR1731622659.0685613.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734507.1299083.png</t>
+          <t>./test_images/MTLR1731622661.27106.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6092,6 +6502,9 @@
       </c>
       <c r="K119" t="n">
         <v>1.009999999999991</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="120">
@@ -6105,22 +6518,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1730734509.3511257</t>
+          <t>1731622663.406985</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1730734510.8008869</t>
+          <t>1731622664.601067</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734509.3511257.png</t>
+          <t>./test_images/MTLR1731622663.406985.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734510.8008869.png</t>
+          <t>./test_images/MTLR1731622664.601067.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6141,6 +6554,9 @@
       </c>
       <c r="K120" t="n">
         <v>1.069999999999993</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -6154,22 +6570,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1730734512.3517141</t>
+          <t>1731622666.1180537</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1730734512.8947675</t>
+          <t>1731622666.617544</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734512.3517141.png</t>
+          <t>./test_images/MTLR1731622666.1180537.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734512.8947675.png</t>
+          <t>./test_images/MTLR1731622666.617544.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6190,6 +6606,9 @@
       </c>
       <c r="K121" t="n">
         <v>0.8600000000000136</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -6203,22 +6622,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1730734513.8485062</t>
+          <t>1731622667.533449</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1730734514.5007353</t>
+          <t>1731622668.1417572</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734513.8485062.png</t>
+          <t>./test_images/MTLR1731622667.533449.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734514.5007353.png</t>
+          <t>./test_images/MTLR1731622668.1417572.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6239,6 +6658,9 @@
       </c>
       <c r="K122" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="123">
@@ -6252,22 +6674,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1730734514.5197124</t>
+          <t>1731622668.1606793</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1730734514.7162895</t>
+          <t>1731622668.3541827</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734514.5197124.png</t>
+          <t>./test_images/MTLR1731622668.1606793.png</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734514.7162895.png</t>
+          <t>./test_images/MTLR1731622668.3541827.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6288,6 +6710,9 @@
       </c>
       <c r="K123" t="n">
         <v>1.159999999999997</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="124">
@@ -6301,22 +6726,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1730734514.735212</t>
+          <t>1731622668.373132</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1730734515.5713115</t>
+          <t>1731622669.1704164</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734514.735212.png</t>
+          <t>./test_images/MTLR1731622668.373132.png</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734515.5713115.png</t>
+          <t>./test_images/MTLR1731622669.1704164.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6337,6 +6762,9 @@
       </c>
       <c r="K124" t="n">
         <v>0.7999999999999829</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="125">
@@ -6350,22 +6778,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1730734515.5902605</t>
+          <t>1731622669.1883702</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1730734518.1623483</t>
+          <t>1731622671.7163055</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734515.5902605.png</t>
+          <t>./test_images/MTLR1731622669.1883702.png</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734518.1623483.png</t>
+          <t>./test_images/MTLR1731622671.7163055.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6386,6 +6814,9 @@
       </c>
       <c r="K125" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="126">
@@ -6399,13 +6830,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1730734518.1822987</t>
+          <t>1731622671.7362244</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730734518.1822987.png</t>
+          <t>./test_images/MTLR1731622671.7362244.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -6422,8 +6853,15 @@
       <c r="I126" t="n">
         <v>155.3</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6436,22 +6874,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1730734518.7932405</t>
+          <t>1731622672.2791314</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1730734520.0392778</t>
+          <t>1731622673.602751</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734518.7932405.png</t>
+          <t>./test_images/FEES1731622672.2791314.png</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734520.0392778.png</t>
+          <t>./test_images/FEES1731622673.602751.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6472,6 +6910,9 @@
       </c>
       <c r="K127" t="n">
         <v>8.000000000001062e-05</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="128">
@@ -6485,22 +6926,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1730734520.0592248</t>
+          <t>1731622673.6207035</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1730734521.1974862</t>
+          <t>1731622674.7754107</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734520.0592248.png</t>
+          <t>./test_images/FEES1731622673.6207035.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734521.1974862.png</t>
+          <t>./test_images/FEES1731622674.7754107.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6521,6 +6962,9 @@
       </c>
       <c r="K128" t="n">
         <v>-0.0001199999999999951</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="129">
@@ -6534,22 +6978,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1730734521.2154386</t>
+          <t>1731622674.793363</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1730734522.100714</t>
+          <t>1731622675.6897147</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734521.2154386.png</t>
+          <t>./test_images/FEES1731622674.793363.png</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734522.100714.png</t>
+          <t>./test_images/FEES1731622675.6897147.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6570,6 +7014,9 @@
       </c>
       <c r="K129" t="n">
         <v>0.0003200000000000008</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="130">
@@ -6583,22 +7030,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1730734522.1186788</t>
+          <t>1731622675.7076757</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1730734523.7291229</t>
+          <t>1731622677.328357</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734522.1186788.png</t>
+          <t>./test_images/FEES1731622675.7076757.png</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734523.7291229.png</t>
+          <t>./test_images/FEES1731622677.328357.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6619,6 +7066,9 @@
       </c>
       <c r="K130" t="n">
         <v>-0.0002800000000000025</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="131">
@@ -6632,22 +7082,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1730734523.748072</t>
+          <t>1731622677.3463037</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1730734525.338733</t>
+          <t>1731622678.9377708</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734523.748072.png</t>
+          <t>./test_images/FEES1731622677.3463037.png</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734525.338733.png</t>
+          <t>./test_images/FEES1731622678.9377708.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6668,6 +7118,9 @@
       </c>
       <c r="K131" t="n">
         <v>-0.0004800000000000082</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="132">
@@ -6681,22 +7134,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1730734525.3568013</t>
+          <t>1731622678.955696</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1730734527.0995727</t>
+          <t>1731622680.879752</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734525.3568013.png</t>
+          <t>./test_images/FEES1731622678.955696.png</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734527.0995727.png</t>
+          <t>./test_images/FEES1731622680.879752.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6717,6 +7170,9 @@
       </c>
       <c r="K132" t="n">
         <v>0.0004599999999999882</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="133">
@@ -6730,22 +7186,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1730734528.369441</t>
+          <t>1731622682.1202993</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1730734531.5250719</t>
+          <t>1731622684.9053018</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734528.369441.png</t>
+          <t>./test_images/FEES1731622682.1202993.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734531.5250719.png</t>
+          <t>./test_images/FEES1731622684.9053018.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6766,6 +7222,9 @@
       </c>
       <c r="K133" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="134">
@@ -6779,13 +7238,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1730734531.5450184</t>
+          <t>1731622684.92226</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730734531.5450184.png</t>
+          <t>./test_images/FEES1731622684.92226.png</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -6802,8 +7261,15 @@
       <c r="I134" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.09724000000000001</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6816,22 +7282,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1730734533.065017</t>
+          <t>1731622686.4002864</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1730734534.774286</t>
+          <t>1731622688.141974</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734533.065017.png</t>
+          <t>./test_images/MXI1731622686.4002864.png</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734534.774286.png</t>
+          <t>./test_images/MXI1731622688.141974.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6852,6 +7318,9 @@
       </c>
       <c r="K135" t="n">
         <v>-5.550000000000182</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="136">
@@ -6865,22 +7334,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1730734534.7932355</t>
+          <t>1731622688.1599329</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1730734535.4473524</t>
+          <t>1731622688.7965906</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734534.7932355.png</t>
+          <t>./test_images/MXI1731622688.1599329.png</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734535.4473524.png</t>
+          <t>./test_images/MXI1731622688.7965906.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6901,6 +7370,9 @@
       </c>
       <c r="K136" t="n">
         <v>-0.09999999999990905</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="137">
@@ -6914,22 +7386,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1730734535.4663017</t>
+          <t>1731622688.8155124</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1730734537.5432146</t>
+          <t>1731622690.8017292</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734535.4663017.png</t>
+          <t>./test_images/MXI1731622688.8155124.png</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734537.5432146.png</t>
+          <t>./test_images/MXI1731622690.8017292.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6950,6 +7422,9 @@
       </c>
       <c r="K137" t="n">
         <v>-4.549999999999727</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="138">
@@ -6963,22 +7438,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1730734537.5621638</t>
+          <t>1731622690.819679</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1730734539.6251335</t>
+          <t>1731622692.6945004</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734537.5621638.png</t>
+          <t>./test_images/MXI1731622690.819679.png</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734539.6251335.png</t>
+          <t>./test_images/MXI1731622692.6945004.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6999,6 +7474,9 @@
       </c>
       <c r="K138" t="n">
         <v>-11.25</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="139">
@@ -7012,13 +7490,13 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1730734539.6450765</t>
+          <t>1731622692.7134495</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730734539.6450765.png</t>
+          <t>./test_images/MXI1731622692.7134495.png</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -7035,8 +7513,15 @@
       <c r="I139" t="n">
         <v>2938.45</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2938.45</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7049,7 +7534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7073,6 +7558,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7084,7 +7584,16 @@
         <v>-2.329999999999927</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2118181818181752</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -7097,7 +7606,16 @@
         <v>4.619999999999976</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4619999999999976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -7110,111 +7628,192 @@
         <v>-1.700000000000159</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1888888888889066</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1099999999999852</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.006249999999999645</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04999999999999716</v>
+        <v>5.999999999999062e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.499999999998827e-06</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06000000000000009</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.999999999999062e-05</v>
+        <v>0.4549999999999983</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05687499999999979</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8199999999999932</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01374999999999815</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4549999999999983</v>
+        <v>-0.404000000000007</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.05771428571428672</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1199999999999761</v>
+        <v>0.8199999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1171428571428562</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.404000000000007</v>
+        <v>0.5399999999999636</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07714285714285195</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5399999999999636</v>
+        <v>0.1199999999999761</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01714285714285373</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -7227,72 +7826,126 @@
         <v>-0.05499999999999616</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.009166666666666027</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.149999999999977</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>0.8400000000000034</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8400000000000034</v>
+        <v>7.299999999999955</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
+      <c r="D16" t="n">
+        <v>1.459999999999991</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.299999999999955</v>
+        <v>-21.44999999999982</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.289999999999964</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-21.44999999999982</v>
+        <v>2.149999999999977</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4299999999999954</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
@@ -7307,6 +7960,15 @@
       <c r="C19" t="n">
         <v>4</v>
       </c>
+      <c r="D19" t="n">
+        <v>-2.899999999999977</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -7318,7 +7980,16 @@
         <v>16.59999999999991</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.149999999999977</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -7331,7 +8002,16 @@
         <v>-0.3100000000000591</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.103333333333353</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="22">
@@ -7344,7 +8024,16 @@
         <v>0.4399999999999977</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1466666666666659</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
@@ -7359,6 +8048,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
